--- a/파이썬/코딩교실 매크로/2.코딩교실운영/영상다운+링크발송/영상보내기.xlsx
+++ b/파이썬/코딩교실 매크로/2.코딩교실운영/영상다운+링크발송/영상보내기.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJG\Desktop\영상다운로드+링크발송\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B4B9C0-6365-4A22-A314-67CB07CD6BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BFC7A8-ADEA-46E8-A72B-2003624BA2F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="588" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="960" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -205,10 +205,11 @@
     <t>https://docs.google.com/spreadsheets/d/1RAJpX8PreBI6sfWAZGIxZeal93_MAC8lxd-XmtlpgzU/edit?gid=1066845978#gid=1066845978</t>
   </si>
   <si>
+    <t>01054237685</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://drive.google.com/drive/u/0/folders/1YjlEIfO-aseP5tTahTIbFJIf-WWtxULr</t>
-  </si>
-  <si>
-    <t>01054237685</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -318,7 +319,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -367,6 +368,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -686,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" topLeftCell="N4" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -800,7 +804,7 @@
         <v>20</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P5" s="6" t="s">
         <v>30</v>
@@ -913,8 +917,8 @@
       <c r="P13" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="Q13" s="13" t="s">
-        <v>47</v>
+      <c r="Q13" s="17" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="16.5" customHeight="1">
@@ -999,8 +1003,9 @@
     <hyperlink ref="Q7" r:id="rId6" location="gid=1066845978" xr:uid="{5077D61C-BEAF-4EE9-BBB6-557CEE64FC02}"/>
     <hyperlink ref="Q8" r:id="rId7" location="gid=1798834338" xr:uid="{AB2AAEEE-4B8E-4AC8-A26E-484E0587F8F2}"/>
     <hyperlink ref="Q9" r:id="rId8" xr:uid="{499DDFAA-7082-494B-BAF2-57EFC446E64B}"/>
+    <hyperlink ref="Q13" r:id="rId9" xr:uid="{3CB9F841-DAA4-4181-B383-CF587203776D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>